--- a/public/exports/reporteAtrasos_formato.xlsx
+++ b/public/exports/reporteAtrasos_formato.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Nombre de expediente</t>
-  </si>
-  <si>
-    <t>Motivo de prestamo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Fecha Solicitud</t>
   </si>
@@ -28,16 +22,25 @@
     <t>Fecha Devoluciòn</t>
   </si>
   <si>
-    <t>Número de expediente</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
     <t>Usuario Solicitud</t>
   </si>
   <si>
-    <t>REPORTE DE DEVOLUCIONES</t>
+    <t>REPORTE DE DEVOLUCIONES PENDIENTES</t>
+  </si>
+  <si>
+    <t>Expediente</t>
+  </si>
+  <si>
+    <t>Tomo</t>
+  </si>
+  <si>
+    <t>Movimiento</t>
+  </si>
+  <si>
+    <t>Fecha entrega</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -133,6 +136,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:V6"/>
+  <dimension ref="C2:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H2"/>
@@ -525,69 +531,73 @@
   <cols>
     <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" style="6" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.28515625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
+    <row r="2" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="12"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
-      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
-    <row r="6" spans="3:14" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
